--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_9店舗検索画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_9店舗検索画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AA7D0-C9CB-499A-98E4-8AC153C58759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD50D46-23F8-4000-8258-E742620BC3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
   <si>
     <t>作成日</t>
   </si>
@@ -171,16 +171,6 @@
     <t>関数名</t>
     <rPh sb="0" eb="3">
       <t>カンスウメイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>DS画面詳細設計書 テンプレート</t>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -628,6 +618,359 @@
     </rPh>
     <rPh sb="84" eb="86">
       <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DS画面詳細設計書 店舗検索画面</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>StoreId_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>PersonnelId_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>StoreName_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Telephone_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Mail_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Note_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Address1_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Address2_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Area1_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Area2_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>StoreId_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>PersonnelId_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>StoreName_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Telephone_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Mail_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Address1_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Address2_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Area1_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Area2_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Note_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Detail_Button</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果の更新・削除画面に移動する。</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>人員ID</t>
+    <rPh sb="0" eb="2">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>店舗名</t>
+    <rPh sb="0" eb="3">
+      <t>テンポメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="4">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メール</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>住所１</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>住所２</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>地域１</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>地域２</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>空白</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果の店舗ID</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果の人員ID</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果の店舗名</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果の電話番号</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果のメール</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果の住所１</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果の住所２</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果の地域区分１</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果の地域区分２</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>グリッド項目、検索結果の備考</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -845,7 +1188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,6 +1247,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -925,11 +1271,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,24 +1304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -965,10 +1311,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,7 +1415,7 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>244245</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>55740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1211,13 +1557,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>140340</xdr:colOff>
+      <xdr:colOff>132720</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>16725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>139980</xdr:colOff>
+      <xdr:colOff>132360</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>133140</xdr:rowOff>
     </xdr:to>
@@ -1273,7 +1619,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>225060</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>88140</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1427,7 +1773,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>93300</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>63300</xdr:rowOff>
+      <xdr:rowOff>55680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1504,7 +1850,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>139680</xdr:colOff>
+      <xdr:colOff>132060</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>98580</xdr:rowOff>
     </xdr:to>
@@ -1652,7 +1998,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>202440</xdr:colOff>
+      <xdr:colOff>210060</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>96420</xdr:rowOff>
     </xdr:from>
@@ -1660,7 +2006,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>15540</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>88860</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2654,15 +3000,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57145</xdr:colOff>
+      <xdr:colOff>60955</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>22858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>163829</xdr:colOff>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>15549</xdr:rowOff>
+      <xdr:rowOff>15545</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2677,10 +3023,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="60955" y="5673090"/>
-          <a:ext cx="24107779" cy="1204269"/>
+          <a:off x="60955" y="5554978"/>
+          <a:ext cx="25418420" cy="1166167"/>
           <a:chOff x="163411" y="5243355"/>
-          <a:chExt cx="23779332" cy="1158549"/>
+          <a:chExt cx="25383700" cy="1157961"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2696,8 +3042,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="274333" y="5367897"/>
-            <a:ext cx="23668410" cy="1034007"/>
+            <a:off x="278090" y="5364553"/>
+            <a:ext cx="25269021" cy="1036763"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3715,7 +4061,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="11535247" y="5454983"/>
-            <a:ext cx="5342306" cy="251460"/>
+            <a:ext cx="3242528" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3759,7 +4105,7 @@
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>住所</a:t>
+              <a:t>住所１</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
@@ -3783,8 +4129,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11537286" y="5742998"/>
-            <a:ext cx="5340736" cy="241713"/>
+            <a:off x="11537285" y="5742998"/>
+            <a:ext cx="3241577" cy="241713"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3825,13 +4171,7 @@
               <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>テスト県テンス市テスト区テスト　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>1-23-4</a:t>
+              <a:t>テスト県テンス市テスト区テスト</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
@@ -3852,8 +4192,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11534078" y="6015448"/>
-            <a:ext cx="5342293" cy="241713"/>
+            <a:off x="11537834" y="6016676"/>
+            <a:ext cx="3242519" cy="243252"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3894,13 +4234,7 @@
               <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>ほにゃ県ほにゃ市ほにゃ区ほにゃらら　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" strike="noStrike" spc="-1">
-                <a:latin typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>5-67-8</a:t>
+              <a:t>ほにゃ県ほにゃ市ほにゃ区ほにゃらら</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
@@ -3966,7 +4300,7 @@
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>地域</a:t>
+              <a:t>地域１</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
@@ -4032,7 +4366,7 @@
               <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>東京都</a:t>
+              <a:t>関東地方</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
@@ -4095,7 +4429,7 @@
               <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>埼玉県</a:t>
+              <a:t>関東地方</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
@@ -4116,7 +4450,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="18505931" y="5454047"/>
+            <a:off x="20102871" y="5454047"/>
             <a:ext cx="5342306" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4185,7 +4519,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="18507968" y="5742062"/>
+            <a:off x="20104902" y="5742062"/>
             <a:ext cx="5340736" cy="241713"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4248,7 +4582,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="18504765" y="6014512"/>
+            <a:off x="20101702" y="6014512"/>
             <a:ext cx="5342293" cy="241713"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4492,6 +4826,396 @@
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
               <a:t>STR0000002</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B071A7-7453-4DDC-B040-B1792D432508}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14839764" y="5454983"/>
+            <a:ext cx="2032485" cy="251460"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF420E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>住所２</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD406FB-8BDE-41F9-BC30-9B95C0B8A5D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14841635" y="5742998"/>
+            <a:ext cx="2031889" cy="241713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>1-23-4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9460514-161F-4C26-B6F5-588DE34695ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14838593" y="6015448"/>
+            <a:ext cx="2032480" cy="241713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>5-67-8</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F248151C-9CD2-47BF-A374-169EDB3F7688}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18514183" y="5454983"/>
+            <a:ext cx="1529765" cy="251460"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF420E"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>地域２</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B57D35D-96E4-4414-B654-CDD30B091CB3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18516219" y="5742998"/>
+            <a:ext cx="1529315" cy="241713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>東京都</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3B3FFB-53E6-4879-8F54-00F5D4212C1D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18513014" y="6015448"/>
+            <a:ext cx="1529761" cy="241713"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>埼玉県</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
@@ -4937,7 +5661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5385,44 +6109,44 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
+      <c r="I9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
@@ -5441,42 +6165,42 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
       <c r="AU10" s="9"/>
@@ -5495,42 +6219,42 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
       <c r="AU11" s="9"/>
@@ -5549,42 +6273,42 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
       <c r="AU12" s="9"/>
@@ -5603,42 +6327,42 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
       <c r="AU13" s="9"/>
@@ -5657,42 +6381,42 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
       <c r="AU14" s="9"/>
@@ -5711,42 +6435,42 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
       <c r="AU15" s="9"/>
@@ -5765,42 +6489,42 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
       <c r="AU16" s="9"/>
@@ -5819,42 +6543,42 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="25"/>
-      <c r="AQ17" s="25"/>
-      <c r="AR17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
@@ -5873,42 +6597,42 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="25"/>
-      <c r="AL18" s="25"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
-      <c r="AQ18" s="25"/>
-      <c r="AR18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
       <c r="AU18" s="9"/>
@@ -5927,42 +6651,42 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="25"/>
-      <c r="AR19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
@@ -5981,42 +6705,42 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25"/>
-      <c r="AQ20" s="25"/>
-      <c r="AR20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
       <c r="AU20" s="9"/>
@@ -6035,42 +6759,42 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="25"/>
-      <c r="AQ21" s="25"/>
-      <c r="AR21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26"/>
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
       <c r="AU21" s="6"/>
@@ -6089,42 +6813,42 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
       <c r="AS22" s="6"/>
       <c r="AT22" s="6"/>
       <c r="AU22" s="6"/>
@@ -7138,30 +7862,30 @@
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
-      <c r="AF41" s="22" t="s">
+      <c r="AF41" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="AG41" s="22"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="22"/>
-      <c r="AL41" s="26">
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="27">
         <v>44063</v>
       </c>
-      <c r="AM41" s="26"/>
-      <c r="AN41" s="26"/>
-      <c r="AO41" s="26"/>
-      <c r="AP41" s="26"/>
-      <c r="AQ41" s="26"/>
-      <c r="AR41" s="26"/>
-      <c r="AS41" s="26"/>
-      <c r="AT41" s="26"/>
-      <c r="AU41" s="26"/>
-      <c r="AV41" s="26"/>
-      <c r="AW41" s="26"/>
-      <c r="AX41" s="26"/>
-      <c r="AY41" s="26"/>
+      <c r="AM41" s="27"/>
+      <c r="AN41" s="27"/>
+      <c r="AO41" s="27"/>
+      <c r="AP41" s="27"/>
+      <c r="AQ41" s="27"/>
+      <c r="AR41" s="27"/>
+      <c r="AS41" s="27"/>
+      <c r="AT41" s="27"/>
+      <c r="AU41" s="27"/>
+      <c r="AV41" s="27"/>
+      <c r="AW41" s="27"/>
+      <c r="AX41" s="27"/>
+      <c r="AY41" s="27"/>
       <c r="AZ41" s="7"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.2">
@@ -7196,26 +7920,26 @@
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-      <c r="AJ42" s="22"/>
-      <c r="AK42" s="22"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="26"/>
-      <c r="AN42" s="26"/>
-      <c r="AO42" s="26"/>
-      <c r="AP42" s="26"/>
-      <c r="AQ42" s="26"/>
-      <c r="AR42" s="26"/>
-      <c r="AS42" s="26"/>
-      <c r="AT42" s="26"/>
-      <c r="AU42" s="26"/>
-      <c r="AV42" s="26"/>
-      <c r="AW42" s="26"/>
-      <c r="AX42" s="26"/>
-      <c r="AY42" s="26"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="23"/>
+      <c r="AL42" s="27"/>
+      <c r="AM42" s="27"/>
+      <c r="AN42" s="27"/>
+      <c r="AO42" s="27"/>
+      <c r="AP42" s="27"/>
+      <c r="AQ42" s="27"/>
+      <c r="AR42" s="27"/>
+      <c r="AS42" s="27"/>
+      <c r="AT42" s="27"/>
+      <c r="AU42" s="27"/>
+      <c r="AV42" s="27"/>
+      <c r="AW42" s="27"/>
+      <c r="AX42" s="27"/>
+      <c r="AY42" s="27"/>
       <c r="AZ42" s="7"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7250,30 +7974,30 @@
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
-      <c r="AF43" s="22" t="s">
+      <c r="AF43" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="22"/>
-      <c r="AK43" s="22"/>
-      <c r="AL43" s="27" t="s">
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+      <c r="AL43" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
-      <c r="AQ43" s="27"/>
-      <c r="AR43" s="27"/>
-      <c r="AS43" s="27"/>
-      <c r="AT43" s="27"/>
-      <c r="AU43" s="27"/>
-      <c r="AV43" s="27"/>
-      <c r="AW43" s="27"/>
-      <c r="AX43" s="27"/>
-      <c r="AY43" s="27"/>
+      <c r="AM43" s="28"/>
+      <c r="AN43" s="28"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="28"/>
+      <c r="AR43" s="28"/>
+      <c r="AS43" s="28"/>
+      <c r="AT43" s="28"/>
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="28"/>
+      <c r="AW43" s="28"/>
+      <c r="AX43" s="28"/>
+      <c r="AY43" s="28"/>
       <c r="AZ43" s="7"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7308,26 +8032,26 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="27"/>
-      <c r="AM44" s="27"/>
-      <c r="AN44" s="27"/>
-      <c r="AO44" s="27"/>
-      <c r="AP44" s="27"/>
-      <c r="AQ44" s="27"/>
-      <c r="AR44" s="27"/>
-      <c r="AS44" s="27"/>
-      <c r="AT44" s="27"/>
-      <c r="AU44" s="27"/>
-      <c r="AV44" s="27"/>
-      <c r="AW44" s="27"/>
-      <c r="AX44" s="27"/>
-      <c r="AY44" s="27"/>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="23"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="28"/>
+      <c r="AN44" s="28"/>
+      <c r="AO44" s="28"/>
+      <c r="AP44" s="28"/>
+      <c r="AQ44" s="28"/>
+      <c r="AR44" s="28"/>
+      <c r="AS44" s="28"/>
+      <c r="AT44" s="28"/>
+      <c r="AU44" s="28"/>
+      <c r="AV44" s="28"/>
+      <c r="AW44" s="28"/>
+      <c r="AX44" s="28"/>
+      <c r="AY44" s="28"/>
       <c r="AZ44" s="7"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.2">
@@ -7362,28 +8086,28 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="22" t="s">
+      <c r="AF45" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="22"/>
-      <c r="AL45" s="23"/>
-      <c r="AM45" s="23"/>
-      <c r="AN45" s="23"/>
-      <c r="AO45" s="23"/>
-      <c r="AP45" s="23"/>
-      <c r="AQ45" s="23"/>
-      <c r="AR45" s="23"/>
-      <c r="AS45" s="23"/>
-      <c r="AT45" s="23"/>
-      <c r="AU45" s="23"/>
-      <c r="AV45" s="23"/>
-      <c r="AW45" s="23"/>
-      <c r="AX45" s="23"/>
-      <c r="AY45" s="23"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="23"/>
+      <c r="AL45" s="24"/>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="24"/>
+      <c r="AP45" s="24"/>
+      <c r="AQ45" s="24"/>
+      <c r="AR45" s="24"/>
+      <c r="AS45" s="24"/>
+      <c r="AT45" s="24"/>
+      <c r="AU45" s="24"/>
+      <c r="AV45" s="24"/>
+      <c r="AW45" s="24"/>
+      <c r="AX45" s="24"/>
+      <c r="AY45" s="24"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.2">
@@ -7418,26 +8142,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="22"/>
-      <c r="AI46" s="22"/>
-      <c r="AJ46" s="22"/>
-      <c r="AK46" s="22"/>
-      <c r="AL46" s="23"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="23"/>
-      <c r="AO46" s="23"/>
-      <c r="AP46" s="23"/>
-      <c r="AQ46" s="23"/>
-      <c r="AR46" s="23"/>
-      <c r="AS46" s="23"/>
-      <c r="AT46" s="23"/>
-      <c r="AU46" s="23"/>
-      <c r="AV46" s="23"/>
-      <c r="AW46" s="23"/>
-      <c r="AX46" s="23"/>
-      <c r="AY46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+      <c r="AL46" s="24"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
+      <c r="AP46" s="24"/>
+      <c r="AQ46" s="24"/>
+      <c r="AR46" s="24"/>
+      <c r="AS46" s="24"/>
+      <c r="AT46" s="24"/>
+      <c r="AU46" s="24"/>
+      <c r="AV46" s="24"/>
+      <c r="AW46" s="24"/>
+      <c r="AX46" s="24"/>
+      <c r="AY46" s="24"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.2">
@@ -7472,28 +8196,28 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="22" t="s">
+      <c r="AF47" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="24"/>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
-      <c r="AQ47" s="24"/>
-      <c r="AR47" s="24"/>
-      <c r="AS47" s="24"/>
-      <c r="AT47" s="24"/>
-      <c r="AU47" s="24"/>
-      <c r="AV47" s="24"/>
-      <c r="AW47" s="24"/>
-      <c r="AX47" s="24"/>
-      <c r="AY47" s="24"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+      <c r="AL47" s="25"/>
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="25"/>
+      <c r="AO47" s="25"/>
+      <c r="AP47" s="25"/>
+      <c r="AQ47" s="25"/>
+      <c r="AR47" s="25"/>
+      <c r="AS47" s="25"/>
+      <c r="AT47" s="25"/>
+      <c r="AU47" s="25"/>
+      <c r="AV47" s="25"/>
+      <c r="AW47" s="25"/>
+      <c r="AX47" s="25"/>
+      <c r="AY47" s="25"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.2">
@@ -7528,26 +8252,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="24"/>
-      <c r="AM48" s="24"/>
-      <c r="AN48" s="24"/>
-      <c r="AO48" s="24"/>
-      <c r="AP48" s="24"/>
-      <c r="AQ48" s="24"/>
-      <c r="AR48" s="24"/>
-      <c r="AS48" s="24"/>
-      <c r="AT48" s="24"/>
-      <c r="AU48" s="24"/>
-      <c r="AV48" s="24"/>
-      <c r="AW48" s="24"/>
-      <c r="AX48" s="24"/>
-      <c r="AY48" s="24"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="23"/>
+      <c r="AJ48" s="23"/>
+      <c r="AK48" s="23"/>
+      <c r="AL48" s="25"/>
+      <c r="AM48" s="25"/>
+      <c r="AN48" s="25"/>
+      <c r="AO48" s="25"/>
+      <c r="AP48" s="25"/>
+      <c r="AQ48" s="25"/>
+      <c r="AR48" s="25"/>
+      <c r="AS48" s="25"/>
+      <c r="AT48" s="25"/>
+      <c r="AU48" s="25"/>
+      <c r="AV48" s="25"/>
+      <c r="AW48" s="25"/>
+      <c r="AX48" s="25"/>
+      <c r="AY48" s="25"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.2">
@@ -7682,962 +8406,2009 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A43:AF66"/>
+  <dimension ref="A43:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="33"/>
+      <c r="AF43" s="33"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
+      <c r="A44" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="34"/>
+      <c r="AE44" s="34"/>
+      <c r="AF44" s="34"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="30"/>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="30"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30"/>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="30"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29" t="s">
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29" t="s">
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="33"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="33"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <v>1</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28" t="s">
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28" t="s">
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f xml:space="preserve"> $A52 + 1</f>
         <v>2</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="29"/>
+      <c r="AF53" s="29"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
-        <f t="shared" ref="A54:A66" si="0" xml:space="preserve"> $A53 + 1</f>
+        <f t="shared" ref="A54:A91" si="0" xml:space="preserve"> $A53 + 1</f>
         <v>3</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
-      <c r="AE54" s="28"/>
-      <c r="AF54" s="28"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="29"/>
+      <c r="AF54" s="29"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B55" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="28"/>
+      <c r="B55" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B56" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
+      <c r="B56" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+      <c r="AF56" s="29"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B57" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="28"/>
-      <c r="AF57" s="28"/>
+      <c r="B57" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
-      <c r="AE58" s="28"/>
-      <c r="AF58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
+      <c r="AE58" s="29"/>
+      <c r="AF58" s="29"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B59" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28" t="s">
+      <c r="B59" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29"/>
+      <c r="AE59" s="29"/>
+      <c r="AF59" s="29"/>
     </row>
     <row r="60" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B60" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="28"/>
-      <c r="AF60" s="28"/>
+      <c r="B60" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
+      <c r="AE60" s="29"/>
+      <c r="AF60" s="29"/>
     </row>
     <row r="61" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28" t="s">
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="28"/>
-      <c r="AC61" s="28"/>
-      <c r="AD61" s="28"/>
-      <c r="AE61" s="28"/>
-      <c r="AF61" s="28"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="29"/>
+      <c r="AA61" s="29"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="29"/>
+      <c r="AE61" s="29"/>
+      <c r="AF61" s="29"/>
     </row>
     <row r="62" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="28"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="28"/>
-      <c r="AE62" s="28"/>
-      <c r="AF62" s="28"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="29"/>
+      <c r="AE62" s="29"/>
+      <c r="AF62" s="29"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28" t="s">
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="28"/>
-      <c r="AC63" s="28"/>
-      <c r="AD63" s="28"/>
-      <c r="AE63" s="28"/>
-      <c r="AF63" s="28"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29"/>
+      <c r="AE63" s="29"/>
+      <c r="AF63" s="29"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="28"/>
-      <c r="AE64" s="28"/>
-      <c r="AF64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="29"/>
+      <c r="AF64" s="29"/>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="28"/>
-      <c r="AE65" s="28"/>
-      <c r="AF65" s="28"/>
+      <c r="B65" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
+      <c r="AE65" s="29"/>
+      <c r="AF65" s="29"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="28"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="28"/>
-      <c r="AE66" s="28"/>
-      <c r="AF66" s="28"/>
+      <c r="B66" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29"/>
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="29"/>
+    </row>
+    <row r="67" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="22">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="29"/>
+      <c r="AE67" s="29"/>
+      <c r="AF67" s="29"/>
+    </row>
+    <row r="68" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="29"/>
+      <c r="AE68" s="29"/>
+      <c r="AF68" s="29"/>
+    </row>
+    <row r="69" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="29"/>
+      <c r="AE69" s="29"/>
+      <c r="AF69" s="29"/>
+    </row>
+    <row r="70" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
+      <c r="AE70" s="29"/>
+      <c r="AF70" s="29"/>
+    </row>
+    <row r="71" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="29"/>
+      <c r="AA71" s="29"/>
+      <c r="AB71" s="29"/>
+      <c r="AC71" s="29"/>
+      <c r="AD71" s="29"/>
+      <c r="AE71" s="29"/>
+      <c r="AF71" s="29"/>
+    </row>
+    <row r="72" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+      <c r="AA72" s="29"/>
+      <c r="AB72" s="29"/>
+      <c r="AC72" s="29"/>
+      <c r="AD72" s="29"/>
+      <c r="AE72" s="29"/>
+      <c r="AF72" s="29"/>
+    </row>
+    <row r="73" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="29"/>
+      <c r="AA73" s="29"/>
+      <c r="AB73" s="29"/>
+      <c r="AC73" s="29"/>
+      <c r="AD73" s="29"/>
+      <c r="AE73" s="29"/>
+      <c r="AF73" s="29"/>
+    </row>
+    <row r="74" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="M74" s="29"/>
+      <c r="N74" s="29"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
+      <c r="AA74" s="29"/>
+      <c r="AB74" s="29"/>
+      <c r="AC74" s="29"/>
+      <c r="AD74" s="29"/>
+      <c r="AE74" s="29"/>
+      <c r="AF74" s="29"/>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A75" s="22">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="29"/>
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29"/>
+      <c r="AC75" s="29"/>
+      <c r="AD75" s="29"/>
+      <c r="AE75" s="29"/>
+      <c r="AF75" s="29"/>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A76" s="22">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="29"/>
+      <c r="Z76" s="29"/>
+      <c r="AA76" s="29"/>
+      <c r="AB76" s="29"/>
+      <c r="AC76" s="29"/>
+      <c r="AD76" s="29"/>
+      <c r="AE76" s="29"/>
+      <c r="AF76" s="29"/>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A77" s="22">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="29"/>
+      <c r="Z77" s="29"/>
+      <c r="AA77" s="29"/>
+      <c r="AB77" s="29"/>
+      <c r="AC77" s="29"/>
+      <c r="AD77" s="29"/>
+      <c r="AE77" s="29"/>
+      <c r="AF77" s="29"/>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A78" s="22">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="29"/>
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="29"/>
+      <c r="AA78" s="29"/>
+      <c r="AB78" s="29"/>
+      <c r="AC78" s="29"/>
+      <c r="AD78" s="29"/>
+      <c r="AE78" s="29"/>
+      <c r="AF78" s="29"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A79" s="22">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="29"/>
+      <c r="U79" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="29"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="29"/>
+      <c r="AD79" s="29"/>
+      <c r="AE79" s="29"/>
+      <c r="AF79" s="29"/>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A80" s="22">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="29"/>
+      <c r="U80" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
+      <c r="X80" s="29"/>
+      <c r="Y80" s="29"/>
+      <c r="Z80" s="29"/>
+      <c r="AA80" s="29"/>
+      <c r="AB80" s="29"/>
+      <c r="AC80" s="29"/>
+      <c r="AD80" s="29"/>
+      <c r="AE80" s="29"/>
+      <c r="AF80" s="29"/>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A81" s="22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="29"/>
+      <c r="U81" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
+      <c r="X81" s="29"/>
+      <c r="Y81" s="29"/>
+      <c r="Z81" s="29"/>
+      <c r="AA81" s="29"/>
+      <c r="AB81" s="29"/>
+      <c r="AC81" s="29"/>
+      <c r="AD81" s="29"/>
+      <c r="AE81" s="29"/>
+      <c r="AF81" s="29"/>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A82" s="22">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="X82" s="29"/>
+      <c r="Y82" s="29"/>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="29"/>
+      <c r="AD82" s="29"/>
+      <c r="AE82" s="29"/>
+      <c r="AF82" s="29"/>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A83" s="22">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="29"/>
+      <c r="Q83" s="29"/>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29"/>
+      <c r="U83" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
+      <c r="X83" s="29"/>
+      <c r="Y83" s="29"/>
+      <c r="Z83" s="29"/>
+      <c r="AA83" s="29"/>
+      <c r="AB83" s="29"/>
+      <c r="AC83" s="29"/>
+      <c r="AD83" s="29"/>
+      <c r="AE83" s="29"/>
+      <c r="AF83" s="29"/>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A84" s="22">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="29"/>
+      <c r="AA84" s="29"/>
+      <c r="AB84" s="29"/>
+      <c r="AC84" s="29"/>
+      <c r="AD84" s="29"/>
+      <c r="AE84" s="29"/>
+      <c r="AF84" s="29"/>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A85" s="22">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
+      <c r="AE85" s="29"/>
+      <c r="AF85" s="29"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A86" s="22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
+      <c r="X86" s="29"/>
+      <c r="Y86" s="29"/>
+      <c r="Z86" s="29"/>
+      <c r="AA86" s="29"/>
+      <c r="AB86" s="29"/>
+      <c r="AC86" s="29"/>
+      <c r="AD86" s="29"/>
+      <c r="AE86" s="29"/>
+      <c r="AF86" s="29"/>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A87" s="22">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="29"/>
+      <c r="AA87" s="29"/>
+      <c r="AB87" s="29"/>
+      <c r="AC87" s="29"/>
+      <c r="AD87" s="29"/>
+      <c r="AE87" s="29"/>
+      <c r="AF87" s="29"/>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A88" s="22">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="29"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="29"/>
+      <c r="X88" s="29"/>
+      <c r="Y88" s="29"/>
+      <c r="Z88" s="29"/>
+      <c r="AA88" s="29"/>
+      <c r="AB88" s="29"/>
+      <c r="AC88" s="29"/>
+      <c r="AD88" s="29"/>
+      <c r="AE88" s="29"/>
+      <c r="AF88" s="29"/>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A89" s="22">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="29"/>
+      <c r="AA89" s="29"/>
+      <c r="AB89" s="29"/>
+      <c r="AC89" s="29"/>
+      <c r="AD89" s="29"/>
+      <c r="AE89" s="29"/>
+      <c r="AF89" s="29"/>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A90" s="22">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29"/>
+      <c r="AA90" s="29"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29"/>
+      <c r="AE90" s="29"/>
+      <c r="AF90" s="29"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A91" s="22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="29"/>
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="29"/>
+      <c r="AE91" s="29"/>
+      <c r="AF91" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A43:AF43"/>
-    <mergeCell ref="A44:AF48"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:T51"/>
-    <mergeCell ref="U51:AF51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:T54"/>
-    <mergeCell ref="U54:AF54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:T58"/>
-    <mergeCell ref="U58:AF58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:T59"/>
-    <mergeCell ref="U59:AF59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
+  <mergeCells count="166">
     <mergeCell ref="B62:G62"/>
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:T62"/>
@@ -8658,6 +10429,152 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:T64"/>
     <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:T59"/>
+    <mergeCell ref="U59:AF59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:T58"/>
+    <mergeCell ref="U58:AF58"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:T54"/>
+    <mergeCell ref="U54:AF54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="A43:AF43"/>
+    <mergeCell ref="A44:AF48"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="U51:AF51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:T74"/>
+    <mergeCell ref="U74:AF74"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:T77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AF75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:T76"/>
+    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:T81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:T82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:T86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:T83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:T84"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:T91"/>
+    <mergeCell ref="U91:AF91"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:T89"/>
+    <mergeCell ref="U89:AF89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:T90"/>
+    <mergeCell ref="U90:AF90"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:T87"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:T88"/>
+    <mergeCell ref="U88:AF88"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:T85"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8675,122 +10592,122 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
+      <c r="A3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="33"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
@@ -8850,374 +10767,374 @@
       <c r="BC4" s="17"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="29" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="29"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="31" t="s">
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="33"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="33"/>
+      <c r="AV5" s="33"/>
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="33"/>
+      <c r="AY5" s="33"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="33"/>
+      <c r="BB5" s="33"/>
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="32"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="32"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="32"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="32"/>
-      <c r="CE5" s="33"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="39"/>
+      <c r="BM5" s="39"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="39"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="39"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="39"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="39"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="39"/>
+      <c r="BX5" s="39"/>
+      <c r="BY5" s="39"/>
+      <c r="BZ5" s="39"/>
+      <c r="CA5" s="39"/>
+      <c r="CB5" s="39"/>
+      <c r="CC5" s="39"/>
+      <c r="CD5" s="39"/>
+      <c r="CE5" s="40"/>
     </row>
     <row r="6" spans="1:83" ht="28.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="34">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="29"/>
+      <c r="AT6" s="29"/>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="29"/>
+      <c r="AW6" s="29"/>
+      <c r="AX6" s="29"/>
+      <c r="AY6" s="29"/>
+      <c r="AZ6" s="29"/>
+      <c r="BA6" s="29"/>
+      <c r="BB6" s="29"/>
+      <c r="BC6" s="29"/>
+      <c r="BD6" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="28"/>
-      <c r="AX6" s="28"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="28"/>
-      <c r="BA6" s="28"/>
-      <c r="BB6" s="28"/>
-      <c r="BC6" s="28"/>
-      <c r="BD6" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE6" s="35"/>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="35"/>
-      <c r="BL6" s="35"/>
-      <c r="BM6" s="35"/>
-      <c r="BN6" s="35"/>
-      <c r="BO6" s="35"/>
-      <c r="BP6" s="35"/>
-      <c r="BQ6" s="35"/>
-      <c r="BR6" s="35"/>
-      <c r="BS6" s="35"/>
-      <c r="BT6" s="35"/>
-      <c r="BU6" s="35"/>
-      <c r="BV6" s="35"/>
-      <c r="BW6" s="35"/>
-      <c r="BX6" s="35"/>
-      <c r="BY6" s="35"/>
-      <c r="BZ6" s="35"/>
-      <c r="CA6" s="35"/>
-      <c r="CB6" s="35"/>
-      <c r="CC6" s="35"/>
-      <c r="CD6" s="35"/>
-      <c r="CE6" s="36"/>
+      <c r="BE6" s="31"/>
+      <c r="BF6" s="31"/>
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="31"/>
+      <c r="BI6" s="31"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="31"/>
+      <c r="BL6" s="31"/>
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="31"/>
+      <c r="BR6" s="31"/>
+      <c r="BS6" s="31"/>
+      <c r="BT6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BV6" s="31"/>
+      <c r="BW6" s="31"/>
+      <c r="BX6" s="31"/>
+      <c r="BY6" s="31"/>
+      <c r="BZ6" s="31"/>
+      <c r="CA6" s="31"/>
+      <c r="CB6" s="31"/>
+      <c r="CC6" s="31"/>
+      <c r="CD6" s="31"/>
+      <c r="CE6" s="32"/>
     </row>
     <row r="7" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="34">
         <f xml:space="preserve"> $A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="28"/>
-      <c r="BA7" s="28"/>
-      <c r="BB7" s="28"/>
-      <c r="BC7" s="28"/>
-      <c r="BD7" s="34"/>
-      <c r="BE7" s="35"/>
-      <c r="BF7" s="35"/>
-      <c r="BG7" s="35"/>
-      <c r="BH7" s="35"/>
-      <c r="BI7" s="35"/>
-      <c r="BJ7" s="35"/>
-      <c r="BK7" s="35"/>
-      <c r="BL7" s="35"/>
-      <c r="BM7" s="35"/>
-      <c r="BN7" s="35"/>
-      <c r="BO7" s="35"/>
-      <c r="BP7" s="35"/>
-      <c r="BQ7" s="35"/>
-      <c r="BR7" s="35"/>
-      <c r="BS7" s="35"/>
-      <c r="BT7" s="35"/>
-      <c r="BU7" s="35"/>
-      <c r="BV7" s="35"/>
-      <c r="BW7" s="35"/>
-      <c r="BX7" s="35"/>
-      <c r="BY7" s="35"/>
-      <c r="BZ7" s="35"/>
-      <c r="CA7" s="35"/>
-      <c r="CB7" s="35"/>
-      <c r="CC7" s="35"/>
-      <c r="CD7" s="35"/>
-      <c r="CE7" s="36"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="29"/>
+      <c r="BA7" s="29"/>
+      <c r="BB7" s="29"/>
+      <c r="BC7" s="29"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="31"/>
+      <c r="BF7" s="31"/>
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="31"/>
+      <c r="BI7" s="31"/>
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="31"/>
+      <c r="BL7" s="31"/>
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="31"/>
+      <c r="BO7" s="31"/>
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="31"/>
+      <c r="BR7" s="31"/>
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="31"/>
+      <c r="BU7" s="31"/>
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BX7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="BZ7" s="31"/>
+      <c r="CA7" s="31"/>
+      <c r="CB7" s="31"/>
+      <c r="CC7" s="31"/>
+      <c r="CD7" s="31"/>
+      <c r="CE7" s="32"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="34">
         <f xml:space="preserve"> $A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="28"/>
-      <c r="AZ8" s="28"/>
-      <c r="BA8" s="28"/>
-      <c r="BB8" s="28"/>
-      <c r="BC8" s="28"/>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="35"/>
-      <c r="BF8" s="35"/>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="35"/>
-      <c r="BI8" s="35"/>
-      <c r="BJ8" s="35"/>
-      <c r="BK8" s="35"/>
-      <c r="BL8" s="35"/>
-      <c r="BM8" s="35"/>
-      <c r="BN8" s="35"/>
-      <c r="BO8" s="35"/>
-      <c r="BP8" s="35"/>
-      <c r="BQ8" s="35"/>
-      <c r="BR8" s="35"/>
-      <c r="BS8" s="35"/>
-      <c r="BT8" s="35"/>
-      <c r="BU8" s="35"/>
-      <c r="BV8" s="35"/>
-      <c r="BW8" s="35"/>
-      <c r="BX8" s="35"/>
-      <c r="BY8" s="35"/>
-      <c r="BZ8" s="35"/>
-      <c r="CA8" s="35"/>
-      <c r="CB8" s="35"/>
-      <c r="CC8" s="35"/>
-      <c r="CD8" s="35"/>
-      <c r="CE8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="29"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="30"/>
+      <c r="BE8" s="31"/>
+      <c r="BF8" s="31"/>
+      <c r="BG8" s="31"/>
+      <c r="BH8" s="31"/>
+      <c r="BI8" s="31"/>
+      <c r="BJ8" s="31"/>
+      <c r="BK8" s="31"/>
+      <c r="BL8" s="31"/>
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="31"/>
+      <c r="BO8" s="31"/>
+      <c r="BP8" s="31"/>
+      <c r="BQ8" s="31"/>
+      <c r="BR8" s="31"/>
+      <c r="BS8" s="31"/>
+      <c r="BT8" s="31"/>
+      <c r="BU8" s="31"/>
+      <c r="BV8" s="31"/>
+      <c r="BW8" s="31"/>
+      <c r="BX8" s="31"/>
+      <c r="BY8" s="31"/>
+      <c r="BZ8" s="31"/>
+      <c r="CA8" s="31"/>
+      <c r="CB8" s="31"/>
+      <c r="CC8" s="31"/>
+      <c r="CD8" s="31"/>
+      <c r="CE8" s="32"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -9334,1164 +11251,1234 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="31" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="29" t="s">
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29" t="s">
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29" t="s">
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29" t="s">
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="29"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="31" t="s">
+      <c r="AO11" s="33"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="33"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="33"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="33"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="33"/>
+      <c r="BD11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BE11" s="32"/>
-      <c r="BF11" s="32"/>
-      <c r="BG11" s="32"/>
-      <c r="BH11" s="32"/>
-      <c r="BI11" s="32"/>
-      <c r="BJ11" s="32"/>
-      <c r="BK11" s="32"/>
-      <c r="BL11" s="32"/>
-      <c r="BM11" s="32"/>
-      <c r="BN11" s="32"/>
-      <c r="BO11" s="32"/>
-      <c r="BP11" s="32"/>
-      <c r="BQ11" s="32"/>
-      <c r="BR11" s="32"/>
-      <c r="BS11" s="32"/>
-      <c r="BT11" s="32"/>
-      <c r="BU11" s="32"/>
-      <c r="BV11" s="32"/>
-      <c r="BW11" s="32"/>
-      <c r="BX11" s="32"/>
-      <c r="BY11" s="32"/>
-      <c r="BZ11" s="32"/>
-      <c r="CA11" s="32"/>
-      <c r="CB11" s="32"/>
-      <c r="CC11" s="32"/>
-      <c r="CD11" s="32"/>
-      <c r="CE11" s="33"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="39"/>
+      <c r="BH11" s="39"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="39"/>
+      <c r="BK11" s="39"/>
+      <c r="BL11" s="39"/>
+      <c r="BM11" s="39"/>
+      <c r="BN11" s="39"/>
+      <c r="BO11" s="39"/>
+      <c r="BP11" s="39"/>
+      <c r="BQ11" s="39"/>
+      <c r="BR11" s="39"/>
+      <c r="BS11" s="39"/>
+      <c r="BT11" s="39"/>
+      <c r="BU11" s="39"/>
+      <c r="BV11" s="39"/>
+      <c r="BW11" s="39"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="39"/>
+      <c r="BZ11" s="39"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="39"/>
+      <c r="CC11" s="39"/>
+      <c r="CD11" s="39"/>
+      <c r="CE11" s="40"/>
     </row>
     <row r="12" spans="1:83" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="34">
         <v>1</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="28"/>
-      <c r="BA12" s="28"/>
-      <c r="BB12" s="28"/>
-      <c r="BC12" s="28"/>
-      <c r="BD12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE12" s="35"/>
-      <c r="BF12" s="35"/>
-      <c r="BG12" s="35"/>
-      <c r="BH12" s="35"/>
-      <c r="BI12" s="35"/>
-      <c r="BJ12" s="35"/>
-      <c r="BK12" s="35"/>
-      <c r="BL12" s="35"/>
-      <c r="BM12" s="35"/>
-      <c r="BN12" s="35"/>
-      <c r="BO12" s="35"/>
-      <c r="BP12" s="35"/>
-      <c r="BQ12" s="35"/>
-      <c r="BR12" s="35"/>
-      <c r="BS12" s="35"/>
-      <c r="BT12" s="35"/>
-      <c r="BU12" s="35"/>
-      <c r="BV12" s="35"/>
-      <c r="BW12" s="35"/>
-      <c r="BX12" s="35"/>
-      <c r="BY12" s="35"/>
-      <c r="BZ12" s="35"/>
-      <c r="CA12" s="35"/>
-      <c r="CB12" s="35"/>
-      <c r="CC12" s="35"/>
-      <c r="CD12" s="35"/>
-      <c r="CE12" s="36"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="31"/>
+      <c r="BO12" s="31"/>
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="31"/>
+      <c r="BU12" s="31"/>
+      <c r="BV12" s="31"/>
+      <c r="BW12" s="31"/>
+      <c r="BX12" s="31"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="31"/>
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="31"/>
+      <c r="CD12" s="31"/>
+      <c r="CE12" s="32"/>
     </row>
     <row r="13" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+      <c r="A13" s="34">
         <f xml:space="preserve"> $A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="28" t="s">
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="28"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="28"/>
-      <c r="AZ13" s="28"/>
-      <c r="BA13" s="28"/>
-      <c r="BB13" s="28"/>
-      <c r="BC13" s="28"/>
-      <c r="BD13" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE13" s="35"/>
-      <c r="BF13" s="35"/>
-      <c r="BG13" s="35"/>
-      <c r="BH13" s="35"/>
-      <c r="BI13" s="35"/>
-      <c r="BJ13" s="35"/>
-      <c r="BK13" s="35"/>
-      <c r="BL13" s="35"/>
-      <c r="BM13" s="35"/>
-      <c r="BN13" s="35"/>
-      <c r="BO13" s="35"/>
-      <c r="BP13" s="35"/>
-      <c r="BQ13" s="35"/>
-      <c r="BR13" s="35"/>
-      <c r="BS13" s="35"/>
-      <c r="BT13" s="35"/>
-      <c r="BU13" s="35"/>
-      <c r="BV13" s="35"/>
-      <c r="BW13" s="35"/>
-      <c r="BX13" s="35"/>
-      <c r="BY13" s="35"/>
-      <c r="BZ13" s="35"/>
-      <c r="CA13" s="35"/>
-      <c r="CB13" s="35"/>
-      <c r="CC13" s="35"/>
-      <c r="CD13" s="35"/>
-      <c r="CE13" s="36"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="31"/>
+      <c r="BL13" s="31"/>
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="31"/>
+      <c r="BO13" s="31"/>
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="31"/>
+      <c r="BU13" s="31"/>
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="31"/>
+      <c r="BX13" s="31"/>
+      <c r="BY13" s="31"/>
+      <c r="BZ13" s="31"/>
+      <c r="CA13" s="31"/>
+      <c r="CB13" s="31"/>
+      <c r="CC13" s="31"/>
+      <c r="CD13" s="31"/>
+      <c r="CE13" s="32"/>
     </row>
     <row r="14" spans="1:83" ht="59.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+      <c r="A14" s="34">
         <f t="shared" ref="A14:A16" si="0" xml:space="preserve"> $A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28" t="s">
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="29"/>
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE14" s="35"/>
-      <c r="BF14" s="35"/>
-      <c r="BG14" s="35"/>
-      <c r="BH14" s="35"/>
-      <c r="BI14" s="35"/>
-      <c r="BJ14" s="35"/>
-      <c r="BK14" s="35"/>
-      <c r="BL14" s="35"/>
-      <c r="BM14" s="35"/>
-      <c r="BN14" s="35"/>
-      <c r="BO14" s="35"/>
-      <c r="BP14" s="35"/>
-      <c r="BQ14" s="35"/>
-      <c r="BR14" s="35"/>
-      <c r="BS14" s="35"/>
-      <c r="BT14" s="35"/>
-      <c r="BU14" s="35"/>
-      <c r="BV14" s="35"/>
-      <c r="BW14" s="35"/>
-      <c r="BX14" s="35"/>
-      <c r="BY14" s="35"/>
-      <c r="BZ14" s="35"/>
-      <c r="CA14" s="35"/>
-      <c r="CB14" s="35"/>
-      <c r="CC14" s="35"/>
-      <c r="CD14" s="35"/>
-      <c r="CE14" s="36"/>
+      <c r="BE14" s="31"/>
+      <c r="BF14" s="31"/>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="31"/>
+      <c r="BI14" s="31"/>
+      <c r="BJ14" s="31"/>
+      <c r="BK14" s="31"/>
+      <c r="BL14" s="31"/>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="31"/>
+      <c r="BO14" s="31"/>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="31"/>
+      <c r="BR14" s="31"/>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="31"/>
+      <c r="BU14" s="31"/>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="31"/>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="31"/>
+      <c r="BZ14" s="31"/>
+      <c r="CA14" s="31"/>
+      <c r="CB14" s="31"/>
+      <c r="CC14" s="31"/>
+      <c r="CD14" s="31"/>
+      <c r="CE14" s="32"/>
     </row>
     <row r="15" spans="1:83" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+      <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="28"/>
-      <c r="BA15" s="28"/>
-      <c r="BB15" s="28"/>
-      <c r="BC15" s="28"/>
-      <c r="BD15" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE15" s="35"/>
-      <c r="BF15" s="35"/>
-      <c r="BG15" s="35"/>
-      <c r="BH15" s="35"/>
-      <c r="BI15" s="35"/>
-      <c r="BJ15" s="35"/>
-      <c r="BK15" s="35"/>
-      <c r="BL15" s="35"/>
-      <c r="BM15" s="35"/>
-      <c r="BN15" s="35"/>
-      <c r="BO15" s="35"/>
-      <c r="BP15" s="35"/>
-      <c r="BQ15" s="35"/>
-      <c r="BR15" s="35"/>
-      <c r="BS15" s="35"/>
-      <c r="BT15" s="35"/>
-      <c r="BU15" s="35"/>
-      <c r="BV15" s="35"/>
-      <c r="BW15" s="35"/>
-      <c r="BX15" s="35"/>
-      <c r="BY15" s="35"/>
-      <c r="BZ15" s="35"/>
-      <c r="CA15" s="35"/>
-      <c r="CB15" s="35"/>
-      <c r="CC15" s="35"/>
-      <c r="CD15" s="35"/>
-      <c r="CE15" s="36"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="29"/>
+      <c r="AW15" s="29"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="29"/>
+      <c r="BA15" s="29"/>
+      <c r="BB15" s="29"/>
+      <c r="BC15" s="29"/>
+      <c r="BD15" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="31"/>
+      <c r="BL15" s="31"/>
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="31"/>
+      <c r="BO15" s="31"/>
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="31"/>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="31"/>
+      <c r="BU15" s="31"/>
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="31"/>
+      <c r="BX15" s="31"/>
+      <c r="BY15" s="31"/>
+      <c r="BZ15" s="31"/>
+      <c r="CA15" s="31"/>
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="31"/>
+      <c r="CD15" s="31"/>
+      <c r="CE15" s="32"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+      <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
-      <c r="BA16" s="28"/>
-      <c r="BB16" s="28"/>
-      <c r="BC16" s="28"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="35"/>
-      <c r="BF16" s="35"/>
-      <c r="BG16" s="35"/>
-      <c r="BH16" s="35"/>
-      <c r="BI16" s="35"/>
-      <c r="BJ16" s="35"/>
-      <c r="BK16" s="35"/>
-      <c r="BL16" s="35"/>
-      <c r="BM16" s="35"/>
-      <c r="BN16" s="35"/>
-      <c r="BO16" s="35"/>
-      <c r="BP16" s="35"/>
-      <c r="BQ16" s="35"/>
-      <c r="BR16" s="35"/>
-      <c r="BS16" s="35"/>
-      <c r="BT16" s="35"/>
-      <c r="BU16" s="35"/>
-      <c r="BV16" s="35"/>
-      <c r="BW16" s="35"/>
-      <c r="BX16" s="35"/>
-      <c r="BY16" s="35"/>
-      <c r="BZ16" s="35"/>
-      <c r="CA16" s="35"/>
-      <c r="CB16" s="35"/>
-      <c r="CC16" s="35"/>
-      <c r="CD16" s="35"/>
-      <c r="CE16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
+      <c r="AS16" s="29"/>
+      <c r="AT16" s="29"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="29"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
+      <c r="BB16" s="29"/>
+      <c r="BC16" s="29"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="31"/>
+      <c r="BF16" s="31"/>
+      <c r="BG16" s="31"/>
+      <c r="BH16" s="31"/>
+      <c r="BI16" s="31"/>
+      <c r="BJ16" s="31"/>
+      <c r="BK16" s="31"/>
+      <c r="BL16" s="31"/>
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="31"/>
+      <c r="BO16" s="31"/>
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="31"/>
+      <c r="BR16" s="31"/>
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="31"/>
+      <c r="BU16" s="31"/>
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="BZ16" s="31"/>
+      <c r="CA16" s="31"/>
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="31"/>
+      <c r="CD16" s="31"/>
+      <c r="CE16" s="32"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="29" t="s">
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29" t="s">
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29" t="s">
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="29"/>
-      <c r="AW19" s="29"/>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="29"/>
-      <c r="BA19" s="29"/>
-      <c r="BB19" s="29"/>
-      <c r="BC19" s="29"/>
-      <c r="BD19" s="31" t="s">
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="33"/>
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="33"/>
+      <c r="AS19" s="33"/>
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="33"/>
+      <c r="AV19" s="33"/>
+      <c r="AW19" s="33"/>
+      <c r="AX19" s="33"/>
+      <c r="AY19" s="33"/>
+      <c r="AZ19" s="33"/>
+      <c r="BA19" s="33"/>
+      <c r="BB19" s="33"/>
+      <c r="BC19" s="33"/>
+      <c r="BD19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BE19" s="32"/>
-      <c r="BF19" s="32"/>
-      <c r="BG19" s="32"/>
-      <c r="BH19" s="32"/>
-      <c r="BI19" s="32"/>
-      <c r="BJ19" s="32"/>
-      <c r="BK19" s="32"/>
-      <c r="BL19" s="32"/>
-      <c r="BM19" s="32"/>
-      <c r="BN19" s="32"/>
-      <c r="BO19" s="32"/>
-      <c r="BP19" s="32"/>
-      <c r="BQ19" s="32"/>
-      <c r="BR19" s="32"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="32"/>
-      <c r="BU19" s="32"/>
-      <c r="BV19" s="32"/>
-      <c r="BW19" s="32"/>
-      <c r="BX19" s="32"/>
-      <c r="BY19" s="32"/>
-      <c r="BZ19" s="32"/>
-      <c r="CA19" s="32"/>
-      <c r="CB19" s="32"/>
-      <c r="CC19" s="32"/>
-      <c r="CD19" s="32"/>
-      <c r="CE19" s="33"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="39"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="39"/>
+      <c r="BK19" s="39"/>
+      <c r="BL19" s="39"/>
+      <c r="BM19" s="39"/>
+      <c r="BN19" s="39"/>
+      <c r="BO19" s="39"/>
+      <c r="BP19" s="39"/>
+      <c r="BQ19" s="39"/>
+      <c r="BR19" s="39"/>
+      <c r="BS19" s="39"/>
+      <c r="BT19" s="39"/>
+      <c r="BU19" s="39"/>
+      <c r="BV19" s="39"/>
+      <c r="BW19" s="39"/>
+      <c r="BX19" s="39"/>
+      <c r="BY19" s="39"/>
+      <c r="BZ19" s="39"/>
+      <c r="CA19" s="39"/>
+      <c r="CB19" s="39"/>
+      <c r="CC19" s="39"/>
+      <c r="CD19" s="39"/>
+      <c r="CE19" s="40"/>
     </row>
     <row r="20" spans="1:83" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
+      <c r="A20" s="34">
         <v>1</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28" t="s">
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28" t="s">
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="28"/>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="28"/>
-      <c r="AT20" s="28"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="28"/>
-      <c r="AY20" s="28"/>
-      <c r="AZ20" s="28"/>
-      <c r="BA20" s="28"/>
-      <c r="BB20" s="28"/>
-      <c r="BC20" s="28"/>
-      <c r="BD20" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE20" s="35"/>
-      <c r="BF20" s="35"/>
-      <c r="BG20" s="35"/>
-      <c r="BH20" s="35"/>
-      <c r="BI20" s="35"/>
-      <c r="BJ20" s="35"/>
-      <c r="BK20" s="35"/>
-      <c r="BL20" s="35"/>
-      <c r="BM20" s="35"/>
-      <c r="BN20" s="35"/>
-      <c r="BO20" s="35"/>
-      <c r="BP20" s="35"/>
-      <c r="BQ20" s="35"/>
-      <c r="BR20" s="35"/>
-      <c r="BS20" s="35"/>
-      <c r="BT20" s="35"/>
-      <c r="BU20" s="35"/>
-      <c r="BV20" s="35"/>
-      <c r="BW20" s="35"/>
-      <c r="BX20" s="35"/>
-      <c r="BY20" s="35"/>
-      <c r="BZ20" s="35"/>
-      <c r="CA20" s="35"/>
-      <c r="CB20" s="35"/>
-      <c r="CC20" s="35"/>
-      <c r="CD20" s="35"/>
-      <c r="CE20" s="36"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="31"/>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="31"/>
+      <c r="BL20" s="31"/>
+      <c r="BM20" s="31"/>
+      <c r="BN20" s="31"/>
+      <c r="BO20" s="31"/>
+      <c r="BP20" s="31"/>
+      <c r="BQ20" s="31"/>
+      <c r="BR20" s="31"/>
+      <c r="BS20" s="31"/>
+      <c r="BT20" s="31"/>
+      <c r="BU20" s="31"/>
+      <c r="BV20" s="31"/>
+      <c r="BW20" s="31"/>
+      <c r="BX20" s="31"/>
+      <c r="BY20" s="31"/>
+      <c r="BZ20" s="31"/>
+      <c r="CA20" s="31"/>
+      <c r="CB20" s="31"/>
+      <c r="CC20" s="31"/>
+      <c r="CD20" s="31"/>
+      <c r="CE20" s="32"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+      <c r="A21" s="34">
         <f xml:space="preserve"> $A20 + 1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="28"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="28"/>
-      <c r="AU21" s="28"/>
-      <c r="AV21" s="28"/>
-      <c r="AW21" s="28"/>
-      <c r="AX21" s="28"/>
-      <c r="AY21" s="28"/>
-      <c r="AZ21" s="28"/>
-      <c r="BA21" s="28"/>
-      <c r="BB21" s="28"/>
-      <c r="BC21" s="28"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="35"/>
-      <c r="BF21" s="35"/>
-      <c r="BG21" s="35"/>
-      <c r="BH21" s="35"/>
-      <c r="BI21" s="35"/>
-      <c r="BJ21" s="35"/>
-      <c r="BK21" s="35"/>
-      <c r="BL21" s="35"/>
-      <c r="BM21" s="35"/>
-      <c r="BN21" s="35"/>
-      <c r="BO21" s="35"/>
-      <c r="BP21" s="35"/>
-      <c r="BQ21" s="35"/>
-      <c r="BR21" s="35"/>
-      <c r="BS21" s="35"/>
-      <c r="BT21" s="35"/>
-      <c r="BU21" s="35"/>
-      <c r="BV21" s="35"/>
-      <c r="BW21" s="35"/>
-      <c r="BX21" s="35"/>
-      <c r="BY21" s="35"/>
-      <c r="BZ21" s="35"/>
-      <c r="CA21" s="35"/>
-      <c r="CB21" s="35"/>
-      <c r="CC21" s="35"/>
-      <c r="CD21" s="35"/>
-      <c r="CE21" s="36"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+      <c r="BB21" s="29"/>
+      <c r="BC21" s="29"/>
+      <c r="BD21" s="30"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="31"/>
+      <c r="BL21" s="31"/>
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="31"/>
+      <c r="BO21" s="31"/>
+      <c r="BP21" s="31"/>
+      <c r="BQ21" s="31"/>
+      <c r="BR21" s="31"/>
+      <c r="BS21" s="31"/>
+      <c r="BT21" s="31"/>
+      <c r="BU21" s="31"/>
+      <c r="BV21" s="31"/>
+      <c r="BW21" s="31"/>
+      <c r="BX21" s="31"/>
+      <c r="BY21" s="31"/>
+      <c r="BZ21" s="31"/>
+      <c r="CA21" s="31"/>
+      <c r="CB21" s="31"/>
+      <c r="CC21" s="31"/>
+      <c r="CD21" s="31"/>
+      <c r="CE21" s="32"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+      <c r="A22" s="34">
         <f t="shared" ref="A22:A24" si="1" xml:space="preserve"> $A21 + 1</f>
         <v>3</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="28"/>
-      <c r="AR22" s="28"/>
-      <c r="AS22" s="28"/>
-      <c r="AT22" s="28"/>
-      <c r="AU22" s="28"/>
-      <c r="AV22" s="28"/>
-      <c r="AW22" s="28"/>
-      <c r="AX22" s="28"/>
-      <c r="AY22" s="28"/>
-      <c r="AZ22" s="28"/>
-      <c r="BA22" s="28"/>
-      <c r="BB22" s="28"/>
-      <c r="BC22" s="28"/>
-      <c r="BD22" s="34"/>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35"/>
-      <c r="BJ22" s="35"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="35"/>
-      <c r="BM22" s="35"/>
-      <c r="BN22" s="35"/>
-      <c r="BO22" s="35"/>
-      <c r="BP22" s="35"/>
-      <c r="BQ22" s="35"/>
-      <c r="BR22" s="35"/>
-      <c r="BS22" s="35"/>
-      <c r="BT22" s="35"/>
-      <c r="BU22" s="35"/>
-      <c r="BV22" s="35"/>
-      <c r="BW22" s="35"/>
-      <c r="BX22" s="35"/>
-      <c r="BY22" s="35"/>
-      <c r="BZ22" s="35"/>
-      <c r="CA22" s="35"/>
-      <c r="CB22" s="35"/>
-      <c r="CC22" s="35"/>
-      <c r="CD22" s="35"/>
-      <c r="CE22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="29"/>
+      <c r="BB22" s="29"/>
+      <c r="BC22" s="29"/>
+      <c r="BD22" s="30"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="31"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
+      <c r="BK22" s="31"/>
+      <c r="BL22" s="31"/>
+      <c r="BM22" s="31"/>
+      <c r="BN22" s="31"/>
+      <c r="BO22" s="31"/>
+      <c r="BP22" s="31"/>
+      <c r="BQ22" s="31"/>
+      <c r="BR22" s="31"/>
+      <c r="BS22" s="31"/>
+      <c r="BT22" s="31"/>
+      <c r="BU22" s="31"/>
+      <c r="BV22" s="31"/>
+      <c r="BW22" s="31"/>
+      <c r="BX22" s="31"/>
+      <c r="BY22" s="31"/>
+      <c r="BZ22" s="31"/>
+      <c r="CA22" s="31"/>
+      <c r="CB22" s="31"/>
+      <c r="CC22" s="31"/>
+      <c r="CD22" s="31"/>
+      <c r="CE22" s="32"/>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
+      <c r="A23" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="28"/>
-      <c r="AY23" s="28"/>
-      <c r="AZ23" s="28"/>
-      <c r="BA23" s="28"/>
-      <c r="BB23" s="28"/>
-      <c r="BC23" s="28"/>
-      <c r="BD23" s="34"/>
-      <c r="BE23" s="35"/>
-      <c r="BF23" s="35"/>
-      <c r="BG23" s="35"/>
-      <c r="BH23" s="35"/>
-      <c r="BI23" s="35"/>
-      <c r="BJ23" s="35"/>
-      <c r="BK23" s="35"/>
-      <c r="BL23" s="35"/>
-      <c r="BM23" s="35"/>
-      <c r="BN23" s="35"/>
-      <c r="BO23" s="35"/>
-      <c r="BP23" s="35"/>
-      <c r="BQ23" s="35"/>
-      <c r="BR23" s="35"/>
-      <c r="BS23" s="35"/>
-      <c r="BT23" s="35"/>
-      <c r="BU23" s="35"/>
-      <c r="BV23" s="35"/>
-      <c r="BW23" s="35"/>
-      <c r="BX23" s="35"/>
-      <c r="BY23" s="35"/>
-      <c r="BZ23" s="35"/>
-      <c r="CA23" s="35"/>
-      <c r="CB23" s="35"/>
-      <c r="CC23" s="35"/>
-      <c r="CD23" s="35"/>
-      <c r="CE23" s="36"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="29"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="29"/>
+      <c r="AV23" s="29"/>
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+      <c r="AZ23" s="29"/>
+      <c r="BA23" s="29"/>
+      <c r="BB23" s="29"/>
+      <c r="BC23" s="29"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="31"/>
+      <c r="BF23" s="31"/>
+      <c r="BG23" s="31"/>
+      <c r="BH23" s="31"/>
+      <c r="BI23" s="31"/>
+      <c r="BJ23" s="31"/>
+      <c r="BK23" s="31"/>
+      <c r="BL23" s="31"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="31"/>
+      <c r="BQ23" s="31"/>
+      <c r="BR23" s="31"/>
+      <c r="BS23" s="31"/>
+      <c r="BT23" s="31"/>
+      <c r="BU23" s="31"/>
+      <c r="BV23" s="31"/>
+      <c r="BW23" s="31"/>
+      <c r="BX23" s="31"/>
+      <c r="BY23" s="31"/>
+      <c r="BZ23" s="31"/>
+      <c r="CA23" s="31"/>
+      <c r="CB23" s="31"/>
+      <c r="CC23" s="31"/>
+      <c r="CD23" s="31"/>
+      <c r="CE23" s="32"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+      <c r="A24" s="34">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
-      <c r="BA24" s="28"/>
-      <c r="BB24" s="28"/>
-      <c r="BC24" s="28"/>
-      <c r="BD24" s="34"/>
-      <c r="BE24" s="35"/>
-      <c r="BF24" s="35"/>
-      <c r="BG24" s="35"/>
-      <c r="BH24" s="35"/>
-      <c r="BI24" s="35"/>
-      <c r="BJ24" s="35"/>
-      <c r="BK24" s="35"/>
-      <c r="BL24" s="35"/>
-      <c r="BM24" s="35"/>
-      <c r="BN24" s="35"/>
-      <c r="BO24" s="35"/>
-      <c r="BP24" s="35"/>
-      <c r="BQ24" s="35"/>
-      <c r="BR24" s="35"/>
-      <c r="BS24" s="35"/>
-      <c r="BT24" s="35"/>
-      <c r="BU24" s="35"/>
-      <c r="BV24" s="35"/>
-      <c r="BW24" s="35"/>
-      <c r="BX24" s="35"/>
-      <c r="BY24" s="35"/>
-      <c r="BZ24" s="35"/>
-      <c r="CA24" s="35"/>
-      <c r="CB24" s="35"/>
-      <c r="CC24" s="35"/>
-      <c r="CD24" s="35"/>
-      <c r="CE24" s="36"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="29"/>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="31"/>
+      <c r="BF24" s="31"/>
+      <c r="BG24" s="31"/>
+      <c r="BH24" s="31"/>
+      <c r="BI24" s="31"/>
+      <c r="BJ24" s="31"/>
+      <c r="BK24" s="31"/>
+      <c r="BL24" s="31"/>
+      <c r="BM24" s="31"/>
+      <c r="BN24" s="31"/>
+      <c r="BO24" s="31"/>
+      <c r="BP24" s="31"/>
+      <c r="BQ24" s="31"/>
+      <c r="BR24" s="31"/>
+      <c r="BS24" s="31"/>
+      <c r="BT24" s="31"/>
+      <c r="BU24" s="31"/>
+      <c r="BV24" s="31"/>
+      <c r="BW24" s="31"/>
+      <c r="BX24" s="31"/>
+      <c r="BY24" s="31"/>
+      <c r="BZ24" s="31"/>
+      <c r="CA24" s="31"/>
+      <c r="CB24" s="31"/>
+      <c r="CC24" s="31"/>
+      <c r="CD24" s="31"/>
+      <c r="CE24" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="AK19:BC19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="M21:X21"/>
+    <mergeCell ref="Y21:AJ21"/>
+    <mergeCell ref="AK21:BC21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="M20:X20"/>
+    <mergeCell ref="Y20:AJ20"/>
+    <mergeCell ref="AK20:BC20"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="M19:X19"/>
+    <mergeCell ref="Y19:AJ19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AK23:BC23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="M22:X22"/>
+    <mergeCell ref="Y22:AJ22"/>
+    <mergeCell ref="AK22:BC22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:L23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="M24:X24"/>
     <mergeCell ref="Y24:AJ24"/>
@@ -10516,87 +12503,17 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="M23:X23"/>
     <mergeCell ref="Y23:AJ23"/>
-    <mergeCell ref="AK23:BC23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="M22:X22"/>
-    <mergeCell ref="Y22:AJ22"/>
-    <mergeCell ref="AK22:BC22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="M21:X21"/>
-    <mergeCell ref="Y21:AJ21"/>
-    <mergeCell ref="AK21:BC21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="M20:X20"/>
-    <mergeCell ref="Y20:AJ20"/>
-    <mergeCell ref="AK20:BC20"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="M19:X19"/>
-    <mergeCell ref="Y19:AJ19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK19:BC19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -10613,107 +12530,107 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
     </row>
     <row r="3" spans="1:35" ht="106.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="40">
+      <c r="A4" s="41">
         <f xml:space="preserve"> $A3 + 1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="43"/>
       <c r="N4" s="43"/>
       <c r="O4" s="43"/>
@@ -10739,21 +12656,21 @@
       <c r="AI4" s="43"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="40">
+      <c r="A5" s="41">
         <f t="shared" ref="A5:A7" si="0" xml:space="preserve"> $A4 + 1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="43"/>
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
@@ -10779,21 +12696,21 @@
       <c r="AI5" s="43"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
@@ -10819,21 +12736,21 @@
       <c r="AI6" s="43"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="40">
+      <c r="A7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
       <c r="M7" s="43"/>
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
@@ -10860,6 +12777,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -10872,12 +12795,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
